--- a/tests/cli/macpie/replace/data.xlsx
+++ b/tests/cli/macpie/replace/data.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/cli/macpie/replace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE326CDD-689D-8146-BD85-6EA034664B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F27A02A-5004-A64D-907A-E557E6888123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="1760" windowWidth="27640" windowHeight="16940" xr2:uid="{FCB703DD-5E9A-E447-A80A-D9D8B5FEA993}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="2-&gt;99" sheetId="2" r:id="rId2"/>
-    <sheet name="-3-&gt;98" sheetId="3" r:id="rId3"/>
+    <sheet name="str;2-&gt;99" sheetId="2" r:id="rId2"/>
+    <sheet name="str;-3-&gt;98" sheetId="3" r:id="rId3"/>
+    <sheet name="re;2,-3-&gt;99" sheetId="4" r:id="rId4"/>
+    <sheet name="re;-3,-4-&gt;99" sheetId="5" r:id="rId5"/>
+    <sheet name="str;apple-&gt;orange" sheetId="6" r:id="rId6"/>
+    <sheet name="str;Apple-&gt;orange;ignorecase" sheetId="7" r:id="rId7"/>
+    <sheet name="str;multiline" sheetId="8" r:id="rId8"/>
+    <sheet name="str;multiline;dotall" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +34,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="14">
   <si>
     <t>PIDN</t>
   </si>
@@ -66,6 +75,19 @@
   </si>
   <si>
     <t>yummy</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>This is another
+multiline sentence.</t>
   </si>
 </sst>
 </file>
@@ -421,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814D2675-CDD5-0B4A-98A3-36DE7050E410}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,7 +519,21 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +543,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74659660-F79A-1E47-984A-13B7A2824261}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +619,21 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +643,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5394BAD-1751-9044-B5E0-E06CAE533F7B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +719,615 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BF096F-8539-D843-9F3B-920E92A52126}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37683</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1">
+        <v>38081</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAF7EE5-0A15-7443-B63C-1C5AA82CE417}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37683</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1">
+        <v>38081</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0640B553-3DB4-044C-8D98-CA6DC5A71AF2}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37683</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>38081</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534FBACB-1831-594A-B962-4F20A0697BFE}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37683</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>38081</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160FE912-199F-6140-A3E0-B310B3305F96}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37683</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>38081</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC205832-309A-0E48-963B-7BF75E9AD8B1}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37683</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>38081</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
